--- a/supplementary_databases/column_explanation.xlsx
+++ b/supplementary_databases/column_explanation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Library/CloudStorage/Box-Box/2336: AMO water and wastewater analysis/Task3-2Part2 facility assessment/GHG Inventory Paper/00_Submit/Nature Water/02_First Reviews/revision_supplemental_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/US_WWTP_GHG/supplementary_databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1A8235-DEE7-A648-BE52-D7E730BD83B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2578C0-B478-9A42-931B-3BC3FC3FF6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="5340" windowWidth="50000" windowHeight="26600" xr2:uid="{BF99A908-1AD0-984E-B6ED-71EC0EF1F60A}"/>
+    <workbookView xWindow="12180" yWindow="7260" windowWidth="30240" windowHeight="18880" xr2:uid="{BF99A908-1AD0-984E-B6ED-71EC0EF1F60A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="384">
   <si>
     <t>code</t>
   </si>
@@ -526,15 +526,6 @@
     <t>treatment trains assigned</t>
   </si>
   <si>
-    <t>Supplementary_File_A.xlsx</t>
-  </si>
-  <si>
-    <t>Supplementary_File_B.xlsx</t>
-  </si>
-  <si>
-    <t>Supplementary_File_C.xlsx</t>
-  </si>
-  <si>
     <t>median CH4 [kg CO2-eq/day]</t>
   </si>
   <si>
@@ -1595,6 +1586,48 @@
   </si>
   <si>
     <t>*B6</t>
+  </si>
+  <si>
+    <t>NREL region</t>
+  </si>
+  <si>
+    <t>electricity carbon intensity [kg CO2-eq/kWh]</t>
+  </si>
+  <si>
+    <t>wastewater solids landfill [kg/year]</t>
+  </si>
+  <si>
+    <t>wastewater solids land application [kg/year]</t>
+  </si>
+  <si>
+    <t>wastewater solids incineration [kg/year]</t>
+  </si>
+  <si>
+    <t>electricity carbon intensity</t>
+  </si>
+  <si>
+    <t>mass flow rate of wastewater solids landfilled on a dry weight basis</t>
+  </si>
+  <si>
+    <t>mass flow rate of wastewater solids land applied on a dry weight basis</t>
+  </si>
+  <si>
+    <t>mass flow rate of wastewater solids incinerated on a dry weight basis</t>
+  </si>
+  <si>
+    <t>geographic region reported in NREL Standard Scenarios Cambium data for 2020</t>
+  </si>
+  <si>
+    <t>wastewater_treatment_plants_additional_information.xlsx</t>
+  </si>
+  <si>
+    <t>supplementary_dataset_A.xlsx</t>
+  </si>
+  <si>
+    <t>supplementary_dataset_B.xlsx</t>
+  </si>
+  <si>
+    <t>supplementary_dataset_C.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2015,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB77CB2-8B5A-6541-AEA7-922DB0FD5966}">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2037,7 +2070,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>163</v>
+        <v>381</v>
       </c>
       <c r="B2" s="5"/>
     </row>
@@ -2403,7 +2436,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>111</v>
@@ -2411,7 +2444,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>112</v>
@@ -2419,7 +2452,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>113</v>
@@ -2427,7 +2460,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>114</v>
@@ -2435,7 +2468,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>115</v>
@@ -2443,7 +2476,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>116</v>
@@ -2451,7 +2484,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>117</v>
@@ -2459,7 +2492,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>118</v>
@@ -2467,7 +2500,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>119</v>
@@ -2475,7 +2508,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>120</v>
@@ -2483,7 +2516,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>121</v>
@@ -2491,7 +2524,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>122</v>
@@ -2499,7 +2532,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>123</v>
@@ -2507,7 +2540,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>124</v>
@@ -2515,7 +2548,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>125</v>
@@ -2523,7 +2556,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>126</v>
@@ -2531,7 +2564,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>127</v>
@@ -2539,7 +2572,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>128</v>
@@ -2547,7 +2580,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>129</v>
@@ -2555,7 +2588,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>130</v>
@@ -2563,7 +2596,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>131</v>
@@ -2571,7 +2604,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>132</v>
@@ -2579,7 +2612,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>133</v>
@@ -2595,7 +2628,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>135</v>
@@ -2603,7 +2636,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>136</v>
@@ -2611,7 +2644,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>137</v>
@@ -2619,7 +2652,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>138</v>
@@ -2627,7 +2660,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>139</v>
@@ -2635,7 +2668,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>140</v>
@@ -2643,7 +2676,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>141</v>
@@ -2651,7 +2684,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>142</v>
@@ -2659,7 +2692,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>143</v>
@@ -2667,7 +2700,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>144</v>
@@ -2675,7 +2708,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>145</v>
@@ -2683,7 +2716,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>146</v>
@@ -2691,7 +2724,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>147</v>
@@ -2699,7 +2732,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>148</v>
@@ -2707,7 +2740,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>149</v>
@@ -2715,7 +2748,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>150</v>
@@ -2723,7 +2756,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>151</v>
@@ -2731,7 +2764,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>152</v>
@@ -2739,7 +2772,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>153</v>
@@ -2747,7 +2780,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>154</v>
@@ -2755,7 +2788,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>155</v>
@@ -2763,7 +2796,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>156</v>
@@ -2803,7 +2836,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>164</v>
+        <v>382</v>
       </c>
       <c r="B98" s="5"/>
     </row>
@@ -2833,583 +2866,583 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>165</v>
+        <v>383</v>
       </c>
       <c r="B174" s="5"/>
     </row>
@@ -3471,74 +3504,74 @@
     </row>
     <row r="182" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -3549,11 +3582,66 @@
         <v>162</v>
       </c>
     </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A192:B192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
